--- a/Column_Table.xlsx
+++ b/Column_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daniel/DS_02/Week_03/Housing_Sales_KingsCounty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B819451-1250-AF40-8632-0C7CAC615DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B533C10C-76D0-164D-A724-86F9AAC81FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="2860" windowWidth="28040" windowHeight="17360" xr2:uid="{38B47700-485B-CC4D-9AA0-BD1326A80441}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{0CA107F9-AF74-6147-BED6-17D17D358D80}" name="Column_Table" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Daniel/DS_02/Week_03/Housing_Sales_KingsCounty/Column_Table.txt" delimited="0" decimal="," thousands=".">
+    <textPr sourceFile="/Users/Daniel/DS_02/Week_03/Housing_Sales_KingsCounty/Column_Table.txt" delimited="0" decimal="," thousands=".">
       <textFields count="24">
         <textField/>
         <textField position="1"/>
@@ -662,7 +662,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
